--- a/Code/Results/Cases/Case_1_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8126430669732372</v>
+        <v>0.6087903704106736</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06738619244778477</v>
+        <v>0.02425809787929012</v>
       </c>
       <c r="E2">
-        <v>0.1093565055180328</v>
+        <v>0.2712026110627281</v>
       </c>
       <c r="F2">
-        <v>0.3506373265301903</v>
+        <v>0.4923401975686161</v>
       </c>
       <c r="G2">
-        <v>0.24420859671703</v>
+        <v>0.3349290900893251</v>
       </c>
       <c r="H2">
-        <v>0.2147802593404791</v>
+        <v>0.5030912612737737</v>
       </c>
       <c r="I2">
-        <v>0.3220313394204979</v>
+        <v>0.8089377786349843</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.246656557427741</v>
+        <v>0.4053179972980843</v>
       </c>
       <c r="L2">
-        <v>0.3013042668944621</v>
+        <v>0.1484486294874188</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7617265687385988</v>
+        <v>1.44642649302849</v>
       </c>
       <c r="O2">
-        <v>0.9174349054281379</v>
+        <v>1.609763374942588</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7136794856285178</v>
+        <v>0.5823244448273499</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0593430760316167</v>
+        <v>0.02162209466069243</v>
       </c>
       <c r="E3">
-        <v>0.1115281994252513</v>
+        <v>0.2734940017564877</v>
       </c>
       <c r="F3">
-        <v>0.3262733808304858</v>
+        <v>0.4897859352744902</v>
       </c>
       <c r="G3">
-        <v>0.2285040711808222</v>
+        <v>0.3337919161885381</v>
       </c>
       <c r="H3">
-        <v>0.2119892101867009</v>
+        <v>0.5055945222935563</v>
       </c>
       <c r="I3">
-        <v>0.3329150238853877</v>
+        <v>0.8173451792023272</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.10315523525594</v>
+        <v>0.3587545892451374</v>
       </c>
       <c r="L3">
-        <v>0.2623198743339401</v>
+        <v>0.1376601091031091</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7900744448895374</v>
+        <v>1.459389425326044</v>
       </c>
       <c r="O3">
-        <v>0.8780026163312726</v>
+        <v>1.612371466496313</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6531890000483145</v>
+        <v>0.5662903058936877</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05439300125217272</v>
+        <v>0.01999325439678046</v>
       </c>
       <c r="E4">
-        <v>0.1130252669255878</v>
+        <v>0.2750101254944184</v>
       </c>
       <c r="F4">
-        <v>0.3119056619864722</v>
+        <v>0.4885247925719582</v>
       </c>
       <c r="G4">
-        <v>0.2193711631710045</v>
+        <v>0.3333323892596951</v>
       </c>
       <c r="H4">
-        <v>0.210618531929839</v>
+        <v>0.5073460923495503</v>
       </c>
       <c r="I4">
-        <v>0.3402095665757461</v>
+        <v>0.8228703013028849</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.014819096290864</v>
+        <v>0.3300014714490374</v>
       </c>
       <c r="L4">
-        <v>0.2385074655830266</v>
+        <v>0.1310909253713675</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8083706455787016</v>
+        <v>1.467817406551063</v>
       </c>
       <c r="O4">
-        <v>0.8555818351581763</v>
+        <v>1.61492014730257</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6286004805521088</v>
+        <v>0.5598112063353256</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05237255160250953</v>
+        <v>0.01932692705285888</v>
       </c>
       <c r="E5">
-        <v>0.1136757090574942</v>
+        <v>0.2756554542710319</v>
       </c>
       <c r="F5">
-        <v>0.3061918760822095</v>
+        <v>0.4880881794065743</v>
       </c>
       <c r="G5">
-        <v>0.215770721273735</v>
+        <v>0.3332051409330106</v>
       </c>
       <c r="H5">
-        <v>0.2101432138214818</v>
+        <v>0.5081138863676244</v>
       </c>
       <c r="I5">
-        <v>0.3433319968531983</v>
+        <v>0.8252131388640116</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9787587094024843</v>
+        <v>0.3182441201999211</v>
       </c>
       <c r="L5">
-        <v>0.2288309991705262</v>
+        <v>0.1284279061255376</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8160457049959398</v>
+        <v>1.471369811275203</v>
       </c>
       <c r="O5">
-        <v>0.8468745772107411</v>
+        <v>1.61619706465865</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6245211142635014</v>
+        <v>0.5587386932683671</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05203685115970558</v>
+        <v>0.01921613018944157</v>
       </c>
       <c r="E6">
-        <v>0.1137861308676271</v>
+        <v>0.2757642723931113</v>
       </c>
       <c r="F6">
-        <v>0.3052514152211216</v>
+        <v>0.4880203516329402</v>
       </c>
       <c r="G6">
-        <v>0.215180000413902</v>
+        <v>0.3331876357327488</v>
       </c>
       <c r="H6">
-        <v>0.2100692295794886</v>
+        <v>0.5082446421981288</v>
       </c>
       <c r="I6">
-        <v>0.3438594092165594</v>
+        <v>0.8256076810616353</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9727669570774822</v>
+        <v>0.3162894141505603</v>
       </c>
       <c r="L6">
-        <v>0.2272257653672369</v>
+        <v>0.1279865621650771</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8173332482797768</v>
+        <v>1.471966810635138</v>
       </c>
       <c r="O6">
-        <v>0.8454540824698284</v>
+        <v>1.616423492111579</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6528571492074775</v>
+        <v>0.5662027032159642</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05436576638191326</v>
+        <v>0.01998427840067052</v>
       </c>
       <c r="E7">
-        <v>0.1130338765424597</v>
+        <v>0.2750187172443361</v>
       </c>
       <c r="F7">
-        <v>0.3118280421368809</v>
+        <v>0.4885185911270469</v>
       </c>
       <c r="G7">
-        <v>0.2193221241387349</v>
+        <v>0.3333304301703919</v>
       </c>
       <c r="H7">
-        <v>0.2106117884626215</v>
+        <v>0.5073562283004094</v>
       </c>
       <c r="I7">
-        <v>0.3402510752613175</v>
+        <v>0.8229015278832801</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.014333034713417</v>
+        <v>0.3298430695442391</v>
       </c>
       <c r="L7">
-        <v>0.2383768599820968</v>
+        <v>0.1310549541822326</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8084732726272605</v>
+        <v>1.467864837907761</v>
       </c>
       <c r="O7">
-        <v>0.855462694459618</v>
+        <v>1.614936403216063</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7784593388749386</v>
+        <v>0.5996204390036439</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06461511247009355</v>
+        <v>0.02335136648915181</v>
       </c>
       <c r="E8">
-        <v>0.1100708697545016</v>
+        <v>0.2719700400918921</v>
       </c>
       <c r="F8">
-        <v>0.3421090957391613</v>
+        <v>0.4913957708488681</v>
       </c>
       <c r="G8">
-        <v>0.2386836457313137</v>
+        <v>0.3344874418772719</v>
       </c>
       <c r="H8">
-        <v>0.2137448532985928</v>
+        <v>0.5039098914660585</v>
       </c>
       <c r="I8">
-        <v>0.3256545653186507</v>
+        <v>0.8117613460062891</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.197220431884318</v>
+        <v>0.3892972095574123</v>
       </c>
       <c r="L8">
-        <v>0.2878342412934245</v>
+        <v>0.1447174127102642</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7713132060297845</v>
+        <v>1.450798883610894</v>
       </c>
       <c r="O8">
-        <v>0.9034541011808983</v>
+        <v>1.610466090151291</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.027276468767411</v>
+        <v>0.6668433314977449</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08463946165343117</v>
+        <v>0.02987108184174048</v>
       </c>
       <c r="E9">
-        <v>0.1055947597225337</v>
+        <v>0.2668564139322971</v>
       </c>
       <c r="F9">
-        <v>0.4065490584476592</v>
+        <v>0.499473271704737</v>
       </c>
       <c r="G9">
-        <v>0.2810221458312299</v>
+        <v>0.3386515123174121</v>
       </c>
       <c r="H9">
-        <v>0.2227533602652372</v>
+        <v>0.4988514987966326</v>
       </c>
       <c r="I9">
-        <v>0.3020737580638908</v>
+        <v>0.7927933546581691</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.554373651690838</v>
+        <v>0.5045648711824811</v>
       </c>
       <c r="L9">
-        <v>0.3859960113332477</v>
+        <v>0.1719410443612475</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7057274857369116</v>
+        <v>1.42104762033053</v>
       </c>
       <c r="O9">
-        <v>1.012765060907668</v>
+        <v>1.609213631192489</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.212128828918281</v>
+        <v>0.7172366265880044</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09933219046354935</v>
+        <v>0.03460921359829428</v>
       </c>
       <c r="E10">
-        <v>0.1031711082156175</v>
+        <v>0.2636244104807446</v>
       </c>
       <c r="F10">
-        <v>0.4575087287228286</v>
+        <v>0.5068912506864294</v>
       </c>
       <c r="G10">
-        <v>0.3152696463476872</v>
+        <v>0.3428688113565812</v>
       </c>
       <c r="H10">
-        <v>0.2313268967944992</v>
+        <v>0.496168240668112</v>
       </c>
       <c r="I10">
-        <v>0.2880930880949109</v>
+        <v>0.7806091686689385</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.816340392370023</v>
+        <v>0.5884156876797419</v>
       </c>
       <c r="L10">
-        <v>0.4591171773675029</v>
+        <v>0.1922008393700736</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6622981168380697</v>
+        <v>1.401448479316297</v>
       </c>
       <c r="O10">
-        <v>1.103790974427341</v>
+        <v>1.612873372878653</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.29678879188333</v>
+        <v>0.7403747557505653</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1060183052126433</v>
+        <v>0.03675320403405635</v>
       </c>
       <c r="E11">
-        <v>0.1022681426986143</v>
+        <v>0.2622676081305197</v>
       </c>
       <c r="F11">
-        <v>0.4816008746752587</v>
+        <v>0.510587818097612</v>
       </c>
       <c r="G11">
-        <v>0.3316433786456798</v>
+        <v>0.3450394185883425</v>
       </c>
       <c r="H11">
-        <v>0.2357005778790011</v>
+        <v>0.4951712528838925</v>
       </c>
       <c r="I11">
-        <v>0.2825214467929982</v>
+        <v>0.7754460072367451</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.935535940560072</v>
+        <v>0.6263739450358798</v>
       </c>
       <c r="L11">
-        <v>0.4926664034659751</v>
+        <v>0.2014728488566391</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6436470715259865</v>
+        <v>1.393021685364367</v>
       </c>
       <c r="O11">
-        <v>1.147866622307077</v>
+        <v>1.615532793809109</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.328939565264335</v>
+        <v>0.7491667714591301</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1085510055131778</v>
+        <v>0.03756340625528765</v>
       </c>
       <c r="E12">
-        <v>0.1019559396201455</v>
+        <v>0.2617701001543029</v>
       </c>
       <c r="F12">
-        <v>0.4908657082958072</v>
+        <v>0.5120338803817646</v>
       </c>
       <c r="G12">
-        <v>0.3379677120256446</v>
+        <v>0.3458976558689812</v>
       </c>
       <c r="H12">
-        <v>0.237429176660001</v>
+        <v>0.4948258221867974</v>
       </c>
       <c r="I12">
-        <v>0.2805304581942565</v>
+        <v>0.7735453840331807</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.980685547846264</v>
+        <v>0.6407203299727939</v>
       </c>
       <c r="L12">
-        <v>0.5054175286321083</v>
+        <v>0.2049918101505739</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6367498772899332</v>
+        <v>1.389900918570188</v>
       </c>
       <c r="O12">
-        <v>1.164970306951318</v>
+        <v>1.616682813923262</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.322011069394819</v>
+        <v>0.7472719250000353</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1080054990584642</v>
+        <v>0.03738899008374119</v>
       </c>
       <c r="E13">
-        <v>0.1020218389289305</v>
+        <v>0.2618765236679437</v>
       </c>
       <c r="F13">
-        <v>0.488863882289003</v>
+        <v>0.5117203889390396</v>
       </c>
       <c r="G13">
-        <v>0.3365999796905896</v>
+        <v>0.3457112054739611</v>
       </c>
       <c r="H13">
-        <v>0.2370536018537166</v>
+        <v>0.4948987897344495</v>
       </c>
       <c r="I13">
-        <v>0.2809538753991454</v>
+        <v>0.7739522911934635</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.970961047714894</v>
+        <v>0.6376318196162742</v>
       </c>
       <c r="L13">
-        <v>0.5026691726496324</v>
+        <v>0.2042335922030247</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.638227839215201</v>
+        <v>1.390569906454115</v>
       </c>
       <c r="O13">
-        <v>1.161267855400098</v>
+        <v>1.616428779612477</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.299431954690903</v>
+        <v>0.7410974805389117</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1062266528344367</v>
+        <v>0.03681989376572403</v>
       </c>
       <c r="E14">
-        <v>0.1022418556405746</v>
+        <v>0.2622263516771834</v>
       </c>
       <c r="F14">
-        <v>0.4823601951999805</v>
+        <v>0.5107058599155678</v>
       </c>
       <c r="G14">
-        <v>0.3321611433426028</v>
+        <v>0.3451092991708293</v>
       </c>
       <c r="H14">
-        <v>0.2358413146649525</v>
+        <v>0.4951421909208022</v>
       </c>
       <c r="I14">
-        <v>0.2823552319597411</v>
+        <v>0.7752885485686072</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.939250113644704</v>
+        <v>0.6275547884455648</v>
       </c>
       <c r="L14">
-        <v>0.493714475575743</v>
+        <v>0.2017621994688028</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6430762780834947</v>
+        <v>1.392763529727826</v>
       </c>
       <c r="O14">
-        <v>1.149265295913267</v>
+        <v>1.615624542004355</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.285613866709127</v>
+        <v>0.737319356429964</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1051371788487785</v>
+        <v>0.0364710858134174</v>
       </c>
       <c r="E15">
-        <v>0.1023805254483197</v>
+        <v>0.2624427511335057</v>
       </c>
       <c r="F15">
-        <v>0.4783952772735702</v>
+        <v>0.5100904531055903</v>
       </c>
       <c r="G15">
-        <v>0.32945866907626</v>
+        <v>0.3447453388405535</v>
       </c>
       <c r="H15">
-        <v>0.23510831141175</v>
+        <v>0.495295460897708</v>
       </c>
       <c r="I15">
-        <v>0.2832292526058211</v>
+        <v>0.7761141488681638</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.919828206755369</v>
+        <v>0.6213786984590399</v>
       </c>
       <c r="L15">
-        <v>0.4882357276664067</v>
+        <v>0.2002494178976804</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6460678493197349</v>
+        <v>1.39411633852384</v>
       </c>
       <c r="O15">
-        <v>1.141968100096904</v>
+        <v>1.615150538248116</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.206608402938201</v>
+        <v>0.7157287445969303</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09889532425029302</v>
+        <v>0.0344688657996528</v>
       </c>
       <c r="E16">
-        <v>0.1032342221760238</v>
+        <v>0.2637153610318954</v>
       </c>
       <c r="F16">
-        <v>0.4559534740862432</v>
+        <v>0.5066561471833282</v>
       </c>
       <c r="G16">
-        <v>0.3142163878661108</v>
+        <v>0.3427320323108347</v>
       </c>
       <c r="H16">
-        <v>0.2310509559457898</v>
+        <v>0.4962378919073132</v>
       </c>
       <c r="I16">
-        <v>0.2884735350809002</v>
+        <v>0.780954228301642</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.808551965246863</v>
+        <v>0.5859312127562362</v>
       </c>
       <c r="L16">
-        <v>0.4569308858885961</v>
+        <v>0.191595999377796</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6635398043034364</v>
+        <v>1.402009026180092</v>
       </c>
       <c r="O16">
-        <v>1.100966696133526</v>
+        <v>1.612719581570502</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.158293923872264</v>
+        <v>0.7025379362240471</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09506707589142849</v>
+        <v>0.03323761820869464</v>
       </c>
       <c r="E17">
-        <v>0.1038097717450768</v>
+        <v>0.2645251019898502</v>
       </c>
       <c r="F17">
-        <v>0.4424267747740416</v>
+        <v>0.5046317620470901</v>
       </c>
       <c r="G17">
-        <v>0.3050759442844964</v>
+        <v>0.3415615257496967</v>
       </c>
       <c r="H17">
-        <v>0.2286861554655673</v>
+        <v>0.4968732851908726</v>
       </c>
       <c r="I17">
-        <v>0.2918964611349075</v>
+        <v>0.7840206445851408</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.740300450012853</v>
+        <v>0.5641371094612566</v>
       </c>
       <c r="L17">
-        <v>0.4378035404815535</v>
+        <v>0.1863015662100622</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6745459543870638</v>
+        <v>1.406976142438648</v>
       </c>
       <c r="O17">
-        <v>1.076517404286307</v>
+        <v>1.611482960195218</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.130557704770837</v>
+        <v>0.6949711111381305</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09286535661410511</v>
+        <v>0.03252836563583372</v>
       </c>
       <c r="E18">
-        <v>0.1041595322070688</v>
+        <v>0.2650015240651644</v>
       </c>
       <c r="F18">
-        <v>0.4347315808479237</v>
+        <v>0.5034977099507074</v>
       </c>
       <c r="G18">
-        <v>0.2998927580686086</v>
+        <v>0.3409120126074185</v>
       </c>
       <c r="H18">
-        <v>0.2273702851002071</v>
+        <v>0.4972597997578561</v>
       </c>
       <c r="I18">
-        <v>0.293939083236701</v>
+        <v>0.7858200860724018</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.701045801293219</v>
+        <v>0.5515842708073819</v>
       </c>
       <c r="L18">
-        <v>0.4268285641102665</v>
+        <v>0.1832616032644552</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6809800096623739</v>
+        <v>1.409879120835612</v>
       </c>
       <c r="O18">
-        <v>1.062704024057041</v>
+        <v>1.610865307488751</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.121175505030635</v>
+        <v>0.6924126000393187</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09211991037172851</v>
+        <v>0.03228804207407165</v>
       </c>
       <c r="E19">
-        <v>0.1042811394580312</v>
+        <v>0.265164667713492</v>
       </c>
       <c r="F19">
-        <v>0.4321404024343494</v>
+        <v>0.5031189489308971</v>
       </c>
       <c r="G19">
-        <v>0.2981502692603613</v>
+        <v>0.3406961739048882</v>
       </c>
       <c r="H19">
-        <v>0.2269322360728694</v>
+        <v>0.4973942844391246</v>
       </c>
       <c r="I19">
-        <v>0.2946431992608645</v>
+        <v>0.7864354814523615</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.687754895729967</v>
+        <v>0.5473311247453978</v>
       </c>
       <c r="L19">
-        <v>0.4231170225386194</v>
+        <v>0.1822332314822575</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.683176068904924</v>
+        <v>1.410869925259021</v>
       </c>
       <c r="O19">
-        <v>1.058068977852031</v>
+        <v>1.61067226202826</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.163431527978986</v>
+        <v>0.7039400366203097</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09547457662061731</v>
+        <v>0.03336879780225388</v>
       </c>
       <c r="E20">
-        <v>0.1037465587688882</v>
+        <v>0.264437798514205</v>
       </c>
       <c r="F20">
-        <v>0.4438578412756087</v>
+        <v>0.504844123682112</v>
       </c>
       <c r="G20">
-        <v>0.306041216665605</v>
+        <v>0.3416836719362522</v>
       </c>
       <c r="H20">
-        <v>0.2289332773450212</v>
+        <v>0.4968034679462363</v>
       </c>
       <c r="I20">
-        <v>0.2915244029573856</v>
+        <v>0.7836905225702466</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.747565687984888</v>
+        <v>0.5664589408128791</v>
       </c>
       <c r="L20">
-        <v>0.4398368897916214</v>
+        <v>0.1868646249515109</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6733635609130495</v>
+        <v>1.406442621321649</v>
       </c>
       <c r="O20">
-        <v>1.079094072280725</v>
+        <v>1.611604911879454</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.306061411957018</v>
+        <v>0.7429102526760119</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1067491170434636</v>
+        <v>0.03698709707360592</v>
       </c>
       <c r="E21">
-        <v>0.1021764160628482</v>
+        <v>0.2621231570222289</v>
       </c>
       <c r="F21">
-        <v>0.4842665523138336</v>
+        <v>0.5110025969210312</v>
       </c>
       <c r="G21">
-        <v>0.3334614926852311</v>
+        <v>0.3452851089963787</v>
       </c>
       <c r="H21">
-        <v>0.2361953929821539</v>
+        <v>0.4950698271354099</v>
       </c>
       <c r="I21">
-        <v>0.2819403480120322</v>
+        <v>0.7748945769317857</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.948563958731711</v>
+        <v>0.6305154121585019</v>
       </c>
       <c r="L21">
-        <v>0.4963433715164456</v>
+        <v>0.2024878955942597</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6416476264641275</v>
+        <v>1.392117302353032</v>
       </c>
       <c r="O21">
-        <v>1.152779279995684</v>
+        <v>1.615856886855823</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.39981890964458</v>
+        <v>0.7685547296796926</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1141226666197781</v>
+        <v>0.03934205141376879</v>
       </c>
       <c r="E22">
-        <v>0.10132404136227</v>
+        <v>0.2607053042413536</v>
       </c>
       <c r="F22">
-        <v>0.5115071331110954</v>
+        <v>0.5152970791138145</v>
       </c>
       <c r="G22">
-        <v>0.3521096712051985</v>
+        <v>0.3478503050110504</v>
       </c>
       <c r="H22">
-        <v>0.2413656702233311</v>
+        <v>0.4941239122320411</v>
       </c>
       <c r="I22">
-        <v>0.276372255610017</v>
+        <v>0.769463893024632</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.080007544599056</v>
+        <v>0.6722188473808899</v>
       </c>
       <c r="L22">
-        <v>0.5335490471037048</v>
+        <v>0.2127443013282999</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6218877248196968</v>
+        <v>1.383164493448014</v>
       </c>
       <c r="O22">
-        <v>1.203360243794151</v>
+        <v>1.619469018122544</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.349725851791106</v>
+        <v>0.7548519780801826</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1101866424547353</v>
+        <v>0.03808607907699013</v>
       </c>
       <c r="E23">
-        <v>0.1017627131709862</v>
+        <v>0.2614533657886522</v>
       </c>
       <c r="F23">
-        <v>0.4968885543279882</v>
+        <v>0.5129803895100977</v>
       </c>
       <c r="G23">
-        <v>0.3420868617586876</v>
+        <v>0.3464618582517716</v>
       </c>
       <c r="H23">
-        <v>0.2385659105115252</v>
+        <v>0.4946116606109285</v>
       </c>
       <c r="I23">
-        <v>0.2792785001592293</v>
+        <v>0.7723332616648264</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.009843136345978</v>
+        <v>0.6499759676378289</v>
       </c>
       <c r="L23">
-        <v>0.5136645262292205</v>
+        <v>0.2072661368644901</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6323430745979373</v>
+        <v>1.38790530681058</v>
       </c>
       <c r="O23">
-        <v>1.176132244664075</v>
+        <v>1.617464938202858</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.16110869201384</v>
+        <v>0.7033060948181742</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09529034809470716</v>
+        <v>0.03330949584064058</v>
       </c>
       <c r="E24">
-        <v>0.1037750786592486</v>
+        <v>0.2644772344889201</v>
       </c>
       <c r="F24">
-        <v>0.4432106031066922</v>
+        <v>0.50474802217731</v>
       </c>
       <c r="G24">
-        <v>0.3056045941831655</v>
+        <v>0.3416283766749757</v>
       </c>
       <c r="H24">
-        <v>0.2288214177957144</v>
+        <v>0.4968349662247391</v>
       </c>
       <c r="I24">
-        <v>0.2916923780870881</v>
+        <v>0.7838396569824937</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.744281124242463</v>
+        <v>0.5654093128054853</v>
       </c>
       <c r="L24">
-        <v>0.4389175457442889</v>
+        <v>0.1866100540063087</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6738977898603444</v>
+        <v>1.406683678827175</v>
       </c>
       <c r="O24">
-        <v>1.077928406496795</v>
+        <v>1.611549486905176</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9596444524160859</v>
+        <v>0.6484794445627529</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07922769051256751</v>
+        <v>0.02811635181723204</v>
       </c>
       <c r="E25">
-        <v>0.1066576273011606</v>
+        <v>0.2681474321122757</v>
       </c>
       <c r="F25">
-        <v>0.388521535463731</v>
+        <v>0.4970274935614114</v>
       </c>
       <c r="G25">
-        <v>0.2690528393724065</v>
+        <v>0.3373218562404929</v>
       </c>
       <c r="H25">
-        <v>0.219988784806084</v>
+        <v>0.5000382707451934</v>
       </c>
       <c r="I25">
-        <v>0.3078860199689508</v>
+        <v>0.797616895916633</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.457866601059351</v>
+        <v>0.4735265750697977</v>
       </c>
       <c r="L25">
-        <v>0.3592862866515532</v>
+        <v>0.1645305896938538</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7226586878374199</v>
+        <v>1.428699001520567</v>
       </c>
       <c r="O25">
-        <v>0.9814213686480286</v>
+        <v>1.608748113922147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6087903704106736</v>
+        <v>0.8126430669732372</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02425809787929012</v>
+        <v>0.06738619244789135</v>
       </c>
       <c r="E2">
-        <v>0.2712026110627281</v>
+        <v>0.1093565055180257</v>
       </c>
       <c r="F2">
-        <v>0.4923401975686161</v>
+        <v>0.3506373265301903</v>
       </c>
       <c r="G2">
-        <v>0.3349290900893251</v>
+        <v>0.2442085967170513</v>
       </c>
       <c r="H2">
-        <v>0.5030912612737737</v>
+        <v>0.2147802593405856</v>
       </c>
       <c r="I2">
-        <v>0.8089377786349843</v>
+        <v>0.3220313394204908</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4053179972980843</v>
+        <v>1.246656557427769</v>
       </c>
       <c r="L2">
-        <v>0.1484486294874188</v>
+        <v>0.3013042668945758</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.44642649302849</v>
+        <v>0.7617265687385846</v>
       </c>
       <c r="O2">
-        <v>1.609763374942588</v>
+        <v>0.9174349054281521</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5823244448273499</v>
+        <v>0.7136794856283757</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02162209466069243</v>
+        <v>0.05934307603165934</v>
       </c>
       <c r="E3">
-        <v>0.2734940017564877</v>
+        <v>0.1115281994252371</v>
       </c>
       <c r="F3">
-        <v>0.4897859352744902</v>
+        <v>0.3262733808304858</v>
       </c>
       <c r="G3">
-        <v>0.3337919161885381</v>
+        <v>0.2285040711808151</v>
       </c>
       <c r="H3">
-        <v>0.5055945222935563</v>
+        <v>0.211989210186708</v>
       </c>
       <c r="I3">
-        <v>0.8173451792023272</v>
+        <v>0.3329150238853913</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3587545892451374</v>
+        <v>1.103155235255969</v>
       </c>
       <c r="L3">
-        <v>0.1376601091031091</v>
+        <v>0.2623198743339401</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.459389425326044</v>
+        <v>0.7900744448895942</v>
       </c>
       <c r="O3">
-        <v>1.612371466496313</v>
+        <v>0.8780026163313295</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5662903058936877</v>
+        <v>0.6531890000484282</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01999325439678046</v>
+        <v>0.05439300125208746</v>
       </c>
       <c r="E4">
-        <v>0.2750101254944184</v>
+        <v>0.1130252669255896</v>
       </c>
       <c r="F4">
-        <v>0.4885247925719582</v>
+        <v>0.311905661986458</v>
       </c>
       <c r="G4">
-        <v>0.3333323892596951</v>
+        <v>0.2193711631709832</v>
       </c>
       <c r="H4">
-        <v>0.5073460923495503</v>
+        <v>0.2106185319298248</v>
       </c>
       <c r="I4">
-        <v>0.8228703013028849</v>
+        <v>0.3402095665757603</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3300014714490374</v>
+        <v>1.014819096290893</v>
       </c>
       <c r="L4">
-        <v>0.1310909253713675</v>
+        <v>0.2385074655830408</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.467817406551063</v>
+        <v>0.8083706455787016</v>
       </c>
       <c r="O4">
-        <v>1.61492014730257</v>
+        <v>0.8555818351581621</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5598112063353256</v>
+        <v>0.6286004805521088</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01932692705285888</v>
+        <v>0.05237255160232479</v>
       </c>
       <c r="E5">
-        <v>0.2756554542710319</v>
+        <v>0.1136757090575387</v>
       </c>
       <c r="F5">
-        <v>0.4880881794065743</v>
+        <v>0.3061918760822024</v>
       </c>
       <c r="G5">
-        <v>0.3332051409330106</v>
+        <v>0.2157707212737208</v>
       </c>
       <c r="H5">
-        <v>0.5081138863676244</v>
+        <v>0.2101432138214818</v>
       </c>
       <c r="I5">
-        <v>0.8252131388640116</v>
+        <v>0.3433319968532</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3182441201999211</v>
+        <v>0.9787587094025412</v>
       </c>
       <c r="L5">
-        <v>0.1284279061255376</v>
+        <v>0.2288309991706683</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.471369811275203</v>
+        <v>0.8160457049959327</v>
       </c>
       <c r="O5">
-        <v>1.61619706465865</v>
+        <v>0.8468745772107837</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5587386932683671</v>
+        <v>0.6245211142633877</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01921613018944157</v>
+        <v>0.05203685115970558</v>
       </c>
       <c r="E6">
-        <v>0.2757642723931113</v>
+        <v>0.1137861308675792</v>
       </c>
       <c r="F6">
-        <v>0.4880203516329402</v>
+        <v>0.3052514152211216</v>
       </c>
       <c r="G6">
-        <v>0.3331876357327488</v>
+        <v>0.215180000413902</v>
       </c>
       <c r="H6">
-        <v>0.5082446421981288</v>
+        <v>0.2100692295794815</v>
       </c>
       <c r="I6">
-        <v>0.8256076810616353</v>
+        <v>0.3438594092165701</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3162894141505603</v>
+        <v>0.9727669570774822</v>
       </c>
       <c r="L6">
-        <v>0.1279865621650771</v>
+        <v>0.227225765367379</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.471966810635138</v>
+        <v>0.8173332482797697</v>
       </c>
       <c r="O6">
-        <v>1.616423492111579</v>
+        <v>0.8454540824698284</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5662027032159642</v>
+        <v>0.6528571492074775</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01998427840067052</v>
+        <v>0.05436576638217616</v>
       </c>
       <c r="E7">
-        <v>0.2750187172443361</v>
+        <v>0.1130338765424916</v>
       </c>
       <c r="F7">
-        <v>0.4885185911270469</v>
+        <v>0.3118280421368809</v>
       </c>
       <c r="G7">
-        <v>0.3333304301703919</v>
+        <v>0.2193221241387278</v>
       </c>
       <c r="H7">
-        <v>0.5073562283004094</v>
+        <v>0.2106117884625078</v>
       </c>
       <c r="I7">
-        <v>0.8229015278832801</v>
+        <v>0.3402510752613139</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3298430695442391</v>
+        <v>1.01433303471336</v>
       </c>
       <c r="L7">
-        <v>0.1310549541822326</v>
+        <v>0.2383768599820968</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.467864837907761</v>
+        <v>0.8084732726272641</v>
       </c>
       <c r="O7">
-        <v>1.614936403216063</v>
+        <v>0.8554626944595327</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5996204390036439</v>
+        <v>0.7784593388749386</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02335136648915181</v>
+        <v>0.06461511247012197</v>
       </c>
       <c r="E8">
-        <v>0.2719700400918921</v>
+        <v>0.1100708697545141</v>
       </c>
       <c r="F8">
-        <v>0.4913957708488681</v>
+        <v>0.3421090957391471</v>
       </c>
       <c r="G8">
-        <v>0.3344874418772719</v>
+        <v>0.2386836457312995</v>
       </c>
       <c r="H8">
-        <v>0.5039098914660585</v>
+        <v>0.2137448532985928</v>
       </c>
       <c r="I8">
-        <v>0.8117613460062891</v>
+        <v>0.3256545653186471</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3892972095574123</v>
+        <v>1.197220431884404</v>
       </c>
       <c r="L8">
-        <v>0.1447174127102642</v>
+        <v>0.2878342412933961</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.450798883610894</v>
+        <v>0.7713132060297667</v>
       </c>
       <c r="O8">
-        <v>1.610466090151291</v>
+        <v>0.9034541011809409</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6668433314977449</v>
+        <v>1.027276468767241</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02987108184174048</v>
+        <v>0.08463946165342406</v>
       </c>
       <c r="E9">
-        <v>0.2668564139322971</v>
+        <v>0.1055947597225693</v>
       </c>
       <c r="F9">
-        <v>0.499473271704737</v>
+        <v>0.4065490584476592</v>
       </c>
       <c r="G9">
-        <v>0.3386515123174121</v>
+        <v>0.2810221458312867</v>
       </c>
       <c r="H9">
-        <v>0.4988514987966326</v>
+        <v>0.2227533602651377</v>
       </c>
       <c r="I9">
-        <v>0.7927933546581691</v>
+        <v>0.3020737580639015</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5045648711824811</v>
+        <v>1.554373651690867</v>
       </c>
       <c r="L9">
-        <v>0.1719410443612475</v>
+        <v>0.3859960113332619</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.42104762033053</v>
+        <v>0.7057274857369293</v>
       </c>
       <c r="O9">
-        <v>1.609213631192489</v>
+        <v>1.012765060907654</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7172366265880044</v>
+        <v>1.212128828918281</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03460921359829428</v>
+        <v>0.09933219046365593</v>
       </c>
       <c r="E10">
-        <v>0.2636244104807446</v>
+        <v>0.1031711082156157</v>
       </c>
       <c r="F10">
-        <v>0.5068912506864294</v>
+        <v>0.4575087287228143</v>
       </c>
       <c r="G10">
-        <v>0.3428688113565812</v>
+        <v>0.3152696463476019</v>
       </c>
       <c r="H10">
-        <v>0.496168240668112</v>
+        <v>0.2313268967944992</v>
       </c>
       <c r="I10">
-        <v>0.7806091686689385</v>
+        <v>0.2880930880949144</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5884156876797419</v>
+        <v>1.816340392370222</v>
       </c>
       <c r="L10">
-        <v>0.1922008393700736</v>
+        <v>0.4591171773675029</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.401448479316297</v>
+        <v>0.6622981168380555</v>
       </c>
       <c r="O10">
-        <v>1.612873372878653</v>
+        <v>1.103790974427312</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7403747557505653</v>
+        <v>1.296788791883444</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03675320403405635</v>
+        <v>0.1060183052126433</v>
       </c>
       <c r="E11">
-        <v>0.2622676081305197</v>
+        <v>0.1022681426986285</v>
       </c>
       <c r="F11">
-        <v>0.510587818097612</v>
+        <v>0.4816008746752729</v>
       </c>
       <c r="G11">
-        <v>0.3450394185883425</v>
+        <v>0.3316433786455946</v>
       </c>
       <c r="H11">
-        <v>0.4951712528838925</v>
+        <v>0.2357005778788874</v>
       </c>
       <c r="I11">
-        <v>0.7754460072367451</v>
+        <v>0.2825214467929911</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6263739450358798</v>
+        <v>1.935535940560044</v>
       </c>
       <c r="L11">
-        <v>0.2014728488566391</v>
+        <v>0.4926664034659609</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.393021685364367</v>
+        <v>0.6436470715259759</v>
       </c>
       <c r="O11">
-        <v>1.615532793809109</v>
+        <v>1.147866622307049</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7491667714591301</v>
+        <v>1.32893956526442</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03756340625528765</v>
+        <v>0.1085510055133483</v>
       </c>
       <c r="E12">
-        <v>0.2617701001543029</v>
+        <v>0.1019559396201313</v>
       </c>
       <c r="F12">
-        <v>0.5120338803817646</v>
+        <v>0.4908657082958001</v>
       </c>
       <c r="G12">
-        <v>0.3458976558689812</v>
+        <v>0.3379677120256588</v>
       </c>
       <c r="H12">
-        <v>0.4948258221867974</v>
+        <v>0.237429176660001</v>
       </c>
       <c r="I12">
-        <v>0.7735453840331807</v>
+        <v>0.2805304581942565</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6407203299727939</v>
+        <v>1.980685547846235</v>
       </c>
       <c r="L12">
-        <v>0.2049918101505739</v>
+        <v>0.5054175286320657</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.389900918570188</v>
+        <v>0.6367498772899332</v>
       </c>
       <c r="O12">
-        <v>1.616682813923262</v>
+        <v>1.164970306951261</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7472719250000353</v>
+        <v>1.322011069394875</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03738899008374119</v>
+        <v>0.1080054990584358</v>
       </c>
       <c r="E13">
-        <v>0.2618765236679437</v>
+        <v>0.1020218389289305</v>
       </c>
       <c r="F13">
-        <v>0.5117203889390396</v>
+        <v>0.488863882289003</v>
       </c>
       <c r="G13">
-        <v>0.3457112054739611</v>
+        <v>0.3365999796906607</v>
       </c>
       <c r="H13">
-        <v>0.4948987897344495</v>
+        <v>0.2370536018538303</v>
       </c>
       <c r="I13">
-        <v>0.7739522911934635</v>
+        <v>0.2809538753991454</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6376318196162742</v>
+        <v>1.970961047714894</v>
       </c>
       <c r="L13">
-        <v>0.2042335922030247</v>
+        <v>0.5026691726495898</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.390569906454115</v>
+        <v>0.6382278392151939</v>
       </c>
       <c r="O13">
-        <v>1.616428779612477</v>
+        <v>1.161267855400126</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7410974805389117</v>
+        <v>1.299431954691045</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03681989376572403</v>
+        <v>0.1062266528345646</v>
       </c>
       <c r="E14">
-        <v>0.2622263516771834</v>
+        <v>0.1022418556405746</v>
       </c>
       <c r="F14">
-        <v>0.5107058599155678</v>
+        <v>0.4823601951999947</v>
       </c>
       <c r="G14">
-        <v>0.3451092991708293</v>
+        <v>0.3321611433425886</v>
       </c>
       <c r="H14">
-        <v>0.4951421909208022</v>
+        <v>0.2358413146649525</v>
       </c>
       <c r="I14">
-        <v>0.7752885485686072</v>
+        <v>0.2823552319597233</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6275547884455648</v>
+        <v>1.939250113644846</v>
       </c>
       <c r="L14">
-        <v>0.2017621994688028</v>
+        <v>0.4937144755757288</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.392763529727826</v>
+        <v>0.6430762780834947</v>
       </c>
       <c r="O14">
-        <v>1.615624542004355</v>
+        <v>1.149265295913267</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.737319356429964</v>
+        <v>1.285613866709127</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0364710858134174</v>
+        <v>0.1051371788487643</v>
       </c>
       <c r="E15">
-        <v>0.2624427511335057</v>
+        <v>0.1023805254483037</v>
       </c>
       <c r="F15">
-        <v>0.5100904531055903</v>
+        <v>0.478395277273556</v>
       </c>
       <c r="G15">
-        <v>0.3447453388405535</v>
+        <v>0.3294586690762031</v>
       </c>
       <c r="H15">
-        <v>0.495295460897708</v>
+        <v>0.2351083114116506</v>
       </c>
       <c r="I15">
-        <v>0.7761141488681638</v>
+        <v>0.2832292526058389</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6213786984590399</v>
+        <v>1.919828206755398</v>
       </c>
       <c r="L15">
-        <v>0.2002494178976804</v>
+        <v>0.4882357276664635</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.39411633852384</v>
+        <v>0.646067849319671</v>
       </c>
       <c r="O15">
-        <v>1.615150538248116</v>
+        <v>1.141968100096932</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7157287445969303</v>
+        <v>1.206608402938087</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0344688657996528</v>
+        <v>0.09889532425018643</v>
       </c>
       <c r="E16">
-        <v>0.2637153610318954</v>
+        <v>0.1032342221760416</v>
       </c>
       <c r="F16">
-        <v>0.5066561471833282</v>
+        <v>0.4559534740862432</v>
       </c>
       <c r="G16">
-        <v>0.3427320323108347</v>
+        <v>0.3142163878661108</v>
       </c>
       <c r="H16">
-        <v>0.4962378919073132</v>
+        <v>0.2310509559459035</v>
       </c>
       <c r="I16">
-        <v>0.780954228301642</v>
+        <v>0.2884735350809002</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5859312127562362</v>
+        <v>1.808551965246863</v>
       </c>
       <c r="L16">
-        <v>0.191595999377796</v>
+        <v>0.4569308858884966</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.402009026180092</v>
+        <v>0.6635398043034364</v>
       </c>
       <c r="O16">
-        <v>1.612719581570502</v>
+        <v>1.100966696133497</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7025379362240471</v>
+        <v>1.158293923872264</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03323761820869464</v>
+        <v>0.09506707589162744</v>
       </c>
       <c r="E17">
-        <v>0.2645251019898502</v>
+        <v>0.1038097717450785</v>
       </c>
       <c r="F17">
-        <v>0.5046317620470901</v>
+        <v>0.4424267747740416</v>
       </c>
       <c r="G17">
-        <v>0.3415615257496967</v>
+        <v>0.3050759442845532</v>
       </c>
       <c r="H17">
-        <v>0.4968732851908726</v>
+        <v>0.2286861554655673</v>
       </c>
       <c r="I17">
-        <v>0.7840206445851408</v>
+        <v>0.2918964611348898</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5641371094612566</v>
+        <v>1.740300450012995</v>
       </c>
       <c r="L17">
-        <v>0.1863015662100622</v>
+        <v>0.437803540481525</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.406976142438648</v>
+        <v>0.6745459543870602</v>
       </c>
       <c r="O17">
-        <v>1.611482960195218</v>
+        <v>1.076517404286307</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6949711111381305</v>
+        <v>1.130557704770837</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03252836563583372</v>
+        <v>0.09286535661387774</v>
       </c>
       <c r="E18">
-        <v>0.2650015240651644</v>
+        <v>0.1041595322070723</v>
       </c>
       <c r="F18">
-        <v>0.5034977099507074</v>
+        <v>0.4347315808479308</v>
       </c>
       <c r="G18">
-        <v>0.3409120126074185</v>
+        <v>0.2998927580685944</v>
       </c>
       <c r="H18">
-        <v>0.4972597997578561</v>
+        <v>0.2273702851001929</v>
       </c>
       <c r="I18">
-        <v>0.7858200860724018</v>
+        <v>0.2939390832366975</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5515842708073819</v>
+        <v>1.701045801293048</v>
       </c>
       <c r="L18">
-        <v>0.1832616032644552</v>
+        <v>0.4268285641103091</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.409879120835612</v>
+        <v>0.6809800096623633</v>
       </c>
       <c r="O18">
-        <v>1.610865307488751</v>
+        <v>1.062704024056984</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6924126000393187</v>
+        <v>1.121175505030379</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03228804207407165</v>
+        <v>0.09211991037197009</v>
       </c>
       <c r="E19">
-        <v>0.265164667713492</v>
+        <v>0.1042811394580738</v>
       </c>
       <c r="F19">
-        <v>0.5031189489308971</v>
+        <v>0.4321404024343778</v>
       </c>
       <c r="G19">
-        <v>0.3406961739048882</v>
+        <v>0.298150269260276</v>
       </c>
       <c r="H19">
-        <v>0.4973942844391246</v>
+        <v>0.2269322360728694</v>
       </c>
       <c r="I19">
-        <v>0.7864354814523615</v>
+        <v>0.2946431992608467</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5473311247453978</v>
+        <v>1.687754895729796</v>
       </c>
       <c r="L19">
-        <v>0.1822332314822575</v>
+        <v>0.4231170225386478</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.410869925259021</v>
+        <v>0.6831760689048672</v>
       </c>
       <c r="O19">
-        <v>1.61067226202826</v>
+        <v>1.058068977851974</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7039400366203097</v>
+        <v>1.163431527978958</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03336879780225388</v>
+        <v>0.095474576620731</v>
       </c>
       <c r="E20">
-        <v>0.264437798514205</v>
+        <v>0.1037465587688899</v>
       </c>
       <c r="F20">
-        <v>0.504844123682112</v>
+        <v>0.4438578412756087</v>
       </c>
       <c r="G20">
-        <v>0.3416836719362522</v>
+        <v>0.3060412166657187</v>
       </c>
       <c r="H20">
-        <v>0.4968034679462363</v>
+        <v>0.2289332773449075</v>
       </c>
       <c r="I20">
-        <v>0.7836905225702466</v>
+        <v>0.291524402957382</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5664589408128791</v>
+        <v>1.747565687984917</v>
       </c>
       <c r="L20">
-        <v>0.1868646249515109</v>
+        <v>0.439836889791664</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.406442621321649</v>
+        <v>0.6733635609130921</v>
       </c>
       <c r="O20">
-        <v>1.611604911879454</v>
+        <v>1.079094072280725</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7429102526760119</v>
+        <v>1.306061411956989</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03698709707360592</v>
+        <v>0.1067491170431083</v>
       </c>
       <c r="E21">
-        <v>0.2621231570222289</v>
+        <v>0.1021764160628464</v>
       </c>
       <c r="F21">
-        <v>0.5110025969210312</v>
+        <v>0.4842665523138479</v>
       </c>
       <c r="G21">
-        <v>0.3452851089963787</v>
+        <v>0.3334614926852311</v>
       </c>
       <c r="H21">
-        <v>0.4950698271354099</v>
+        <v>0.2361953929820402</v>
       </c>
       <c r="I21">
-        <v>0.7748945769317857</v>
+        <v>0.2819403480120428</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6305154121585019</v>
+        <v>1.948563958731711</v>
       </c>
       <c r="L21">
-        <v>0.2024878955942597</v>
+        <v>0.4963433715164456</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.392117302353032</v>
+        <v>0.6416476264641204</v>
       </c>
       <c r="O21">
-        <v>1.615856886855823</v>
+        <v>1.152779279995684</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7685547296796926</v>
+        <v>1.399818909644608</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03934205141376879</v>
+        <v>0.1141226666197781</v>
       </c>
       <c r="E22">
-        <v>0.2607053042413536</v>
+        <v>0.1013240413622736</v>
       </c>
       <c r="F22">
-        <v>0.5152970791138145</v>
+        <v>0.5115071331111096</v>
       </c>
       <c r="G22">
-        <v>0.3478503050110504</v>
+        <v>0.3521096712051985</v>
       </c>
       <c r="H22">
-        <v>0.4941239122320411</v>
+        <v>0.2413656702233311</v>
       </c>
       <c r="I22">
-        <v>0.769463893024632</v>
+        <v>0.2763722556100063</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6722188473808899</v>
+        <v>2.080007544599084</v>
       </c>
       <c r="L22">
-        <v>0.2127443013282999</v>
+        <v>0.5335490471037048</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.383164493448014</v>
+        <v>0.6218877248196968</v>
       </c>
       <c r="O22">
-        <v>1.619469018122544</v>
+        <v>1.203360243794179</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7548519780801826</v>
+        <v>1.349725851790964</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03808607907699013</v>
+        <v>0.1101866424544653</v>
       </c>
       <c r="E23">
-        <v>0.2614533657886522</v>
+        <v>0.1017627131709702</v>
       </c>
       <c r="F23">
-        <v>0.5129803895100977</v>
+        <v>0.4968885543279598</v>
       </c>
       <c r="G23">
-        <v>0.3464618582517716</v>
+        <v>0.3420868617586308</v>
       </c>
       <c r="H23">
-        <v>0.4946116606109285</v>
+        <v>0.2385659105116389</v>
       </c>
       <c r="I23">
-        <v>0.7723332616648264</v>
+        <v>0.2792785001592222</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6499759676378289</v>
+        <v>2.009843136346007</v>
       </c>
       <c r="L23">
-        <v>0.2072661368644901</v>
+        <v>0.5136645262291211</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.38790530681058</v>
+        <v>0.6323430745979302</v>
       </c>
       <c r="O23">
-        <v>1.617464938202858</v>
+        <v>1.176132244663989</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7033060948181742</v>
+        <v>1.161108692013585</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03330949584064058</v>
+        <v>0.09529034809470005</v>
       </c>
       <c r="E24">
-        <v>0.2644772344889201</v>
+        <v>0.1037750786592468</v>
       </c>
       <c r="F24">
-        <v>0.50474802217731</v>
+        <v>0.4432106031066922</v>
       </c>
       <c r="G24">
-        <v>0.3416283766749757</v>
+        <v>0.3056045941831229</v>
       </c>
       <c r="H24">
-        <v>0.4968349662247391</v>
+        <v>0.2288214177958281</v>
       </c>
       <c r="I24">
-        <v>0.7838396569824937</v>
+        <v>0.2916923780870846</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5654093128054853</v>
+        <v>1.74428112424232</v>
       </c>
       <c r="L24">
-        <v>0.1866100540063087</v>
+        <v>0.4389175457443741</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.406683678827175</v>
+        <v>0.6738977898603906</v>
       </c>
       <c r="O24">
-        <v>1.611549486905176</v>
+        <v>1.077928406496767</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6484794445627529</v>
+        <v>0.9596444524161143</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02811635181723204</v>
+        <v>0.07922769051277356</v>
       </c>
       <c r="E25">
-        <v>0.2681474321122757</v>
+        <v>0.1066576273011446</v>
       </c>
       <c r="F25">
-        <v>0.4970274935614114</v>
+        <v>0.388521535463731</v>
       </c>
       <c r="G25">
-        <v>0.3373218562404929</v>
+        <v>0.2690528393724634</v>
       </c>
       <c r="H25">
-        <v>0.5000382707451934</v>
+        <v>0.2199887848059561</v>
       </c>
       <c r="I25">
-        <v>0.797616895916633</v>
+        <v>0.3078860199689544</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4735265750697977</v>
+        <v>1.457866601059351</v>
       </c>
       <c r="L25">
-        <v>0.1645305896938538</v>
+        <v>0.3592862866515532</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.428699001520567</v>
+        <v>0.7226586878374235</v>
       </c>
       <c r="O25">
-        <v>1.608748113922147</v>
+        <v>0.9814213686480286</v>
       </c>
     </row>
   </sheetData>
